--- a/documents/Published/CalendarVisual/CalendarVisualByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/CalendarVisual/CalendarVisualByMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-saviss\source\repos\PowerBI-visuals2\documents\Published\CalendarVisual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirza\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0A11B-8C2B-486B-B3C8-D39FA2139F3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE2D42D-40D9-460D-9F11-66BE6E65E4D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBDE03C9-0260-4264-B62F-D02A960AE001}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
   <si>
     <t>Feature</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Calander Visual with date and event is rendered</t>
-  </si>
-  <si>
-    <t>The message 'Please Select Dates and events' is displayed on screen</t>
   </si>
   <si>
     <t>Display basic visual</t>
@@ -590,6 +587,15 @@
   <si>
     <t>1. Click on 'Month' Button
 2.Click '&lt;' or '&gt;' several times a bit faster</t>
+  </si>
+  <si>
+    <t>The message 'Start Date and Events are required fields' is displayed on screen</t>
+  </si>
+  <si>
+    <t>Validation Screenshots</t>
+  </si>
+  <si>
+    <t>These are tested and do not work. There is no working functionality of this on the market build as well.</t>
   </si>
 </sst>
 </file>
@@ -673,26 +679,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -707,37 +697,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -746,13 +712,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -762,6 +722,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,6 +750,1155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF3BB6F-8FC9-44CE-BD9D-0FCE469AD899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="381000"/>
+          <a:ext cx="5191125" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBBCF8D-529B-48AD-84D8-B228D5094474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="3057526"/>
+          <a:ext cx="5191125" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E181A4-A71A-4E5A-84BA-B4AB5FF9B40B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792076" y="5553075"/>
+          <a:ext cx="5191124" cy="3400425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60520040-6B6C-445F-841C-9C686A1FA976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792077" y="9144001"/>
+          <a:ext cx="5191124" cy="2857499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6DD969-222F-4CF3-A524-444AD5744FF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792077" y="12192000"/>
+          <a:ext cx="5191123" cy="3629025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01851904-58C7-4FF0-9CBB-D875C4B8D48E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792076" y="15821025"/>
+          <a:ext cx="5191124" cy="3448050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D7FFD5-A5DF-45E6-8CE0-BFED90FF23BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="19288126"/>
+          <a:ext cx="5191126" cy="3819524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16AFB8CD-531F-4A67-B616-5F3A8BEF4B4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792076" y="23088601"/>
+          <a:ext cx="5191124" cy="3448049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51E2514-5351-48F6-AB21-37B9F32FB619}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792077" y="26536651"/>
+          <a:ext cx="5191124" cy="3762374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8FAA15-F252-4D81-9C4A-023A131D88D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="30489525"/>
+          <a:ext cx="5191125" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985741E1-2749-4C87-8A67-0F83FBDF6B7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="33928050"/>
+          <a:ext cx="5191125" cy="3286125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5162550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5452217E-B331-41E4-975F-E482A853F16E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="37404675"/>
+          <a:ext cx="5162550" cy="2676526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D6A5EE-9004-436B-B110-55C947C8A9C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="40252650"/>
+          <a:ext cx="5191125" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C691AE62-77AF-4210-8883-D1A043C73B12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="43434000"/>
+          <a:ext cx="5191125" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A25E45-77AB-47C6-AE76-74516E2033CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="45739050"/>
+          <a:ext cx="5191125" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A2F7C9-DA3B-461B-BA2F-F104D016178D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792076" y="48787050"/>
+          <a:ext cx="5191124" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C021C9-C9AE-4CE8-A287-8BCE84C9879C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="52978050"/>
+          <a:ext cx="5191125" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC80794E-ED91-4457-A9D5-02392723033E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792076" y="56197500"/>
+          <a:ext cx="5191124" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36ADDCB4-B6C4-45BF-8AD9-8FAD078DF533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792077" y="58740677"/>
+          <a:ext cx="5191124" cy="2200274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE7403E-0626-4EA9-8C73-3E3D43A3760E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="60940950"/>
+          <a:ext cx="5191125" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7ADC00-2040-4434-A9B8-2990E04333B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792076" y="63998476"/>
+          <a:ext cx="5191124" cy="2838449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52977E4A-FC27-493F-8E0E-7C917946221E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="67027425"/>
+          <a:ext cx="5191125" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7610E6-1633-4A29-B2DD-7FF5956ED177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="69970650"/>
+          <a:ext cx="5191125" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5191124</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86751708-E5C1-424D-A5C2-5189282F8CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="72237600"/>
+          <a:ext cx="5191124" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0F0CDD-C0C1-4F61-B639-A8F3B28D5439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792076" y="78114525"/>
+          <a:ext cx="5191124" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037F001A-0C3C-4BD4-8198-A5AEE4654587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792077" y="81172050"/>
+          <a:ext cx="5191124" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1077,516 +2198,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115B7480-3B3D-4922-96EC-1499616FB2AA}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="4" max="4" width="119.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="119.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="77.85546875" customWidth="1"/>
+    <col min="6" max="6" width="76.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="25"/>
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="300.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="296.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="255.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="315" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="D42" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" ht="253.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-    </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-    </row>
-    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="B52" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>128</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A26:A29"/>
+  <mergeCells count="12">
+    <mergeCell ref="E46:E48"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1606,274 +2755,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="30"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="30"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
-        <v>18</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="29"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="29"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>19</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>20</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>57</v>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
